--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.82635291723197</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H2">
-        <v>1.82635291723197</v>
+        <v>6.758053</v>
       </c>
       <c r="I2">
-        <v>0.01947095794522012</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J2">
-        <v>0.01947095794522012</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.949586377120877</v>
+        <v>1.252524333333333</v>
       </c>
       <c r="N2">
-        <v>0.949586377120877</v>
+        <v>3.757573</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9099863583404593</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9099863583404593</v>
       </c>
       <c r="Q2">
-        <v>1.734279850018451</v>
+        <v>2.821541942818778</v>
       </c>
       <c r="R2">
-        <v>1.734279850018451</v>
+        <v>25.393877485369</v>
       </c>
       <c r="S2">
-        <v>0.01947095794522012</v>
+        <v>0.02022161868803664</v>
       </c>
       <c r="T2">
-        <v>0.01947095794522012</v>
+        <v>0.02158789806924477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>73.1950051260558</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H3">
-        <v>73.1950051260558</v>
+        <v>6.758053</v>
       </c>
       <c r="I3">
-        <v>0.7803403455941084</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J3">
-        <v>0.7803403455941084</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.949586377120877</v>
+        <v>0.108201</v>
       </c>
       <c r="N3">
-        <v>0.949586377120877</v>
+        <v>0.324603</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0786103960924746</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07861039609247461</v>
       </c>
       <c r="Q3">
-        <v>69.50497974099535</v>
+        <v>0.243742697551</v>
       </c>
       <c r="R3">
-        <v>69.50497974099535</v>
+        <v>2.193684277959</v>
       </c>
       <c r="S3">
-        <v>0.7803403455941084</v>
+        <v>0.00174687174167814</v>
       </c>
       <c r="T3">
-        <v>0.7803403455941084</v>
+        <v>0.001864899624563797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.252684333333333</v>
+      </c>
+      <c r="H4">
+        <v>6.758053</v>
+      </c>
+      <c r="I4">
+        <v>0.0222218921225531</v>
+      </c>
+      <c r="J4">
+        <v>0.02372332054363385</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.047087</v>
+      </c>
+      <c r="O4">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P4">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q4">
+        <v>0.03535738240122222</v>
+      </c>
+      <c r="R4">
+        <v>0.318216441611</v>
+      </c>
+      <c r="S4">
+        <v>0.0002534016928383244</v>
+      </c>
+      <c r="T4">
+        <v>0.0002705228498252804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>79.77368433333334</v>
+      </c>
+      <c r="H5">
+        <v>239.321053</v>
+      </c>
+      <c r="I5">
+        <v>0.7869376908440662</v>
+      </c>
+      <c r="J5">
+        <v>0.8401073583114818</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.252524333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.757573</v>
+      </c>
+      <c r="O5">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="P5">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="Q5">
+        <v>99.91848078715212</v>
+      </c>
+      <c r="R5">
+        <v>899.266327084369</v>
+      </c>
+      <c r="S5">
+        <v>0.7161025635320419</v>
+      </c>
+      <c r="T5">
+        <v>0.7644862356048886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>79.77368433333334</v>
+      </c>
+      <c r="H6">
+        <v>239.321053</v>
+      </c>
+      <c r="I6">
+        <v>0.7869376908440662</v>
+      </c>
+      <c r="J6">
+        <v>0.8401073583114818</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.108201</v>
+      </c>
+      <c r="N6">
+        <v>0.324603</v>
+      </c>
+      <c r="O6">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P6">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q6">
+        <v>8.631592418551</v>
+      </c>
+      <c r="R6">
+        <v>77.68433176695899</v>
+      </c>
+      <c r="S6">
+        <v>0.06186148357734936</v>
+      </c>
+      <c r="T6">
+        <v>0.06604117219706808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>79.77368433333334</v>
+      </c>
+      <c r="H7">
+        <v>239.321053</v>
+      </c>
+      <c r="I7">
+        <v>0.7869376908440662</v>
+      </c>
+      <c r="J7">
+        <v>0.8401073583114818</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.047087</v>
+      </c>
+      <c r="O7">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P7">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q7">
+        <v>1.252101158067889</v>
+      </c>
+      <c r="R7">
+        <v>11.268910422611</v>
+      </c>
+      <c r="S7">
+        <v>0.008973643734674817</v>
+      </c>
+      <c r="T7">
+        <v>0.009579950509525002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.266579</v>
+      </c>
+      <c r="I8">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J8">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.252524333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.757573</v>
+      </c>
+      <c r="O8">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="P8">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="Q8">
+        <v>0.1112988947518889</v>
+      </c>
+      <c r="R8">
+        <v>1.001690052767</v>
+      </c>
+      <c r="S8">
+        <v>0.0007976644883131457</v>
+      </c>
+      <c r="T8">
+        <v>0.0008515589148829108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.266579</v>
+      </c>
+      <c r="I9">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J9">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.108201</v>
+      </c>
+      <c r="N9">
+        <v>0.324603</v>
+      </c>
+      <c r="O9">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P9">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q9">
+        <v>0.009614704792999999</v>
+      </c>
+      <c r="R9">
+        <v>0.08653234313699999</v>
+      </c>
+      <c r="S9">
+        <v>6.890732020373576E-05</v>
+      </c>
+      <c r="T9">
+        <v>7.356306276624233E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.266579</v>
+      </c>
+      <c r="I10">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J10">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.047087</v>
+      </c>
+      <c r="O10">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P10">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q10">
+        <v>0.001394711708111111</v>
+      </c>
+      <c r="R10">
+        <v>0.012552405373</v>
+      </c>
+      <c r="S10">
+        <v>9.995714723626416E-06</v>
+      </c>
+      <c r="T10">
+        <v>1.067107801367841E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.029331</v>
+      </c>
+      <c r="I11">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J11">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.252524333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.757573</v>
+      </c>
+      <c r="O11">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="P11">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="Q11">
+        <v>0.012245930407</v>
+      </c>
+      <c r="R11">
+        <v>0.110213373663</v>
+      </c>
+      <c r="S11">
+        <v>8.776496688303607E-05</v>
+      </c>
+      <c r="T11">
+        <v>9.369483167252732E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.029331</v>
+      </c>
+      <c r="I12">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J12">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.108201</v>
+      </c>
+      <c r="N12">
+        <v>0.324603</v>
+      </c>
+      <c r="O12">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P12">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q12">
+        <v>0.001057881177</v>
+      </c>
+      <c r="R12">
+        <v>0.009520930592999998</v>
+      </c>
+      <c r="S12">
+        <v>7.581694765513312E-06</v>
+      </c>
+      <c r="T12">
+        <v>8.093954114902726E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.029331</v>
+      </c>
+      <c r="I13">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J13">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.047087</v>
+      </c>
+      <c r="O13">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P13">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q13">
+        <v>0.000153456533</v>
+      </c>
+      <c r="R13">
+        <v>0.001381108797</v>
+      </c>
+      <c r="S13">
+        <v>1.099802717238366E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.174111198628555E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>18.7774638929651</v>
-      </c>
-      <c r="H4">
-        <v>18.7774638929651</v>
-      </c>
-      <c r="I4">
-        <v>0.2001886964606714</v>
-      </c>
-      <c r="J4">
-        <v>0.2001886964606714</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.949586377120877</v>
-      </c>
-      <c r="N4">
-        <v>0.949586377120877</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>17.83082390963881</v>
-      </c>
-      <c r="R4">
-        <v>17.83082390963881</v>
-      </c>
-      <c r="S4">
-        <v>0.2001886964606714</v>
-      </c>
-      <c r="T4">
-        <v>0.2001886964606714</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>19.2472955</v>
+      </c>
+      <c r="H14">
+        <v>38.494591</v>
+      </c>
+      <c r="I14">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J14">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.252524333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.757573</v>
+      </c>
+      <c r="O14">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="P14">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="Q14">
+        <v>24.10770596460717</v>
+      </c>
+      <c r="R14">
+        <v>144.646235787643</v>
+      </c>
+      <c r="S14">
+        <v>0.1727767466651846</v>
+      </c>
+      <c r="T14">
+        <v>0.1229669709197704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>19.2472955</v>
+      </c>
+      <c r="H15">
+        <v>38.494591</v>
+      </c>
+      <c r="I15">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J15">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.108201</v>
+      </c>
+      <c r="N15">
+        <v>0.324603</v>
+      </c>
+      <c r="O15">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P15">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q15">
+        <v>2.0825766203955</v>
+      </c>
+      <c r="R15">
+        <v>12.495459722373</v>
+      </c>
+      <c r="S15">
+        <v>0.01492555175847785</v>
+      </c>
+      <c r="T15">
+        <v>0.01062266725396159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.2472955</v>
+      </c>
+      <c r="H16">
+        <v>38.494591</v>
+      </c>
+      <c r="I16">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J16">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.047087</v>
+      </c>
+      <c r="O16">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P16">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q16">
+        <v>0.3020991344028333</v>
+      </c>
+      <c r="R16">
+        <v>1.812594806417</v>
+      </c>
+      <c r="S16">
+        <v>0.002165104622112077</v>
+      </c>
+      <c r="T16">
+        <v>0.001540927018503494</v>
       </c>
     </row>
   </sheetData>
